--- a/warps/checklist.xlsx
+++ b/warps/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/warps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{970918B8-7E0F-7A4A-978C-C70519EDB6D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB2D4F6-2022-DE42-8F06-D65CF0B6AC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8F973975-D728-DD43-939D-6FD780CCB81F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{8F973975-D728-DD43-939D-6FD780CCB81F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
@@ -141,14 +141,28 @@
   </si>
   <si>
     <t>Mobile Suit Gundam: Char's Counter Attack</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>box set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,8 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627EB446-E649-B74D-A499-EAD85EBC1807}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,26 +518,33 @@
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="55.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1987</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -535,8 +557,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -549,8 +574,11 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -563,8 +591,11 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -577,8 +608,11 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -591,8 +625,11 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -605,8 +642,11 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -619,8 +659,11 @@
       <c r="E8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -633,8 +676,11 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -647,8 +693,11 @@
       <c r="E10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -661,6 +710,12 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/warps/checklist.xlsx
+++ b/warps/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/warps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB2D4F6-2022-DE42-8F06-D65CF0B6AC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1CA5AC-8BB2-D24F-8FCF-214805652946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{8F973975-D728-DD43-939D-6FD780CCB81F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{8F973975-D728-DD43-939D-6FD780CCB81F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627EB446-E649-B74D-A499-EAD85EBC1807}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,9 +714,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
